--- a/도서대여 프로젝트/도서정보-테이블명세_MySQL.xlsx
+++ b/도서대여 프로젝트/도서정보-테이블명세_MySQL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="저자정보테이블" sheetId="8" r:id="rId3"/>
     <sheet name="회원정보테이블" sheetId="9" r:id="rId4"/>
     <sheet name="도서대여정보테이블" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="142">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1459,7 +1460,7 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2596,7 +2597,7 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3708,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5920,7 +5921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -7043,4 +7044,142 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>